--- a/data/alpha_trader_wallets.xlsx
+++ b/data/alpha_trader_wallets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jortpost/Code/trading_bot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D25A60-950E-BB49-A739-5683B6F6B0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7006B671-7FE0-3E45-BF06-A4A9AB92617C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3560" windowWidth="28040" windowHeight="17260" xr2:uid="{A9049D96-CF9E-2B43-A81C-BA121058C5AC}"/>
+    <workbookView xWindow="23700" yWindow="1860" windowWidth="14700" windowHeight="18380" xr2:uid="{A9049D96-CF9E-2B43-A81C-BA121058C5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>wallet_id</t>
+  </si>
+  <si>
+    <t>2etgHx7nEvQWvdj5xMKrvcmJEvQaHbPM9whBx4hHGxtV</t>
+  </si>
+  <si>
+    <t>C2n9iEKWntCSVwcpEdjR2VkXYvfdwuXfVk4N9DNRF47c</t>
+  </si>
+  <si>
+    <t>bought_early</t>
+  </si>
+  <si>
+    <t>sold_peak</t>
+  </si>
+  <si>
+    <t>4kWbtFRCoJFgbMpFqBzKYN3MsFcUwaL8t1ysB6ADq2ye</t>
+  </si>
+  <si>
+    <t>4RdA9pordAbYrY3ZYT8zJdJTfHptbFxxsvQm7sJiXqgZ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +428,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95139499-CBF4-A847-8174-DBCD533A7BF2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>